--- a/Excel/Common-通用配置.xlsx
+++ b/Excel/Common-通用配置.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="24015" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="common" sheetId="1" r:id="rId1"/>
+    <sheet name="Common" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1658,7 +1658,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
